--- a/FracturesCandidateCodes/Trauma Codes.xlsx
+++ b/FracturesCandidateCodes/Trauma Codes.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xihangc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91760F-F421-4EEE-B6D4-907B8938B236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D63B10-3DAD-45C9-A800-CEF95F35E590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7B487D00-73EC-48FB-A016-C1E820A9CA71}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trauma" sheetId="1" r:id="rId1"/>
-    <sheet name="Trauma extra" sheetId="2" r:id="rId2"/>
-    <sheet name="Description" sheetId="3" r:id="rId3"/>
+    <sheet name="Trauma" sheetId="4" r:id="rId1"/>
+    <sheet name="Trauma -- old" sheetId="1" r:id="rId2"/>
+    <sheet name="Trauma extra" sheetId="2" r:id="rId3"/>
+    <sheet name="Description" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Trauma!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Trauma -- old'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3188" uniqueCount="280">
   <si>
     <t>Id</t>
   </si>
@@ -752,6 +753,135 @@
   </si>
   <si>
     <t>However, the second sheet is a subset of the first sheet. Therefore, at any rate, working with the Master Sheet should be sufficient.</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Accident caused by agricultural machine</t>
+  </si>
+  <si>
+    <t>Accident caused by explosion of boiler</t>
+  </si>
+  <si>
+    <t>Accident caused by explosion of gas cylinder</t>
+  </si>
+  <si>
+    <t>Accident caused by explosion of pressure vessel</t>
+  </si>
+  <si>
+    <t>Accident caused by explosive material</t>
+  </si>
+  <si>
+    <t>Accident caused by firearm missile</t>
+  </si>
+  <si>
+    <t>Accident caused by fireworks</t>
+  </si>
+  <si>
+    <t>Accident caused by handgun</t>
+  </si>
+  <si>
+    <t>Accident caused by machinery</t>
+  </si>
+  <si>
+    <t>Accident caused by nonpowered hand tools and implements</t>
+  </si>
+  <si>
+    <t>Accident caused by powered lawn mower</t>
+  </si>
+  <si>
+    <t>Accidentally struck by or against objects or persons</t>
+  </si>
+  <si>
+    <t>Accidents caused by cutting and piercing instruments or objects</t>
+  </si>
+  <si>
+    <t>Balloon accident, occupant of unpowered aircraft injured</t>
+  </si>
+  <si>
+    <t>Bilateral traumatic amputation of lower limbs</t>
+  </si>
+  <si>
+    <t>Bilateral traumatic amputation of upper limbs</t>
+  </si>
+  <si>
+    <t>Collision between animal-drawn vehicle and fixed object</t>
+  </si>
+  <si>
+    <t>Contact with machinery</t>
+  </si>
+  <si>
+    <t>Crush injury of head and neck</t>
+  </si>
+  <si>
+    <t>Crushed in between objects</t>
+  </si>
+  <si>
+    <t>Crushing injuries involving multiple regions of upper limb(s) with lower limb(s)</t>
+  </si>
+  <si>
+    <t>Crushing injuries of thorax with abdomen, lower back and pelvis with limb(s)</t>
+  </si>
+  <si>
+    <t>Crushing injury of multiple sites</t>
+  </si>
+  <si>
+    <t>Crushing injury of multiple sites of lower limb</t>
+  </si>
+  <si>
+    <t>Crushing injury of multiple sites of upper limb</t>
+  </si>
+  <si>
+    <t>Effect of exposure to physical force</t>
+  </si>
+  <si>
+    <t>Exposure to inanimate mechanical force</t>
+  </si>
+  <si>
+    <t>Hang glider accident, occupant of unpowered aircraft injured</t>
+  </si>
+  <si>
+    <t>Heavy goods vehicle accident</t>
+  </si>
+  <si>
+    <t>Motor vehicle on road in collision with motor cycle</t>
+  </si>
+  <si>
+    <t>Motor vehicle on road in collision with nonmotor vehicle</t>
+  </si>
+  <si>
+    <t>On ground bystander victim in aircraft accident</t>
+  </si>
+  <si>
+    <t>Parachute descent accident</t>
+  </si>
+  <si>
+    <t>Passenger in vehicular AND/OR traffic accident</t>
+  </si>
+  <si>
+    <t>Struck by falling object</t>
+  </si>
+  <si>
+    <t>Struck by sports equipment</t>
+  </si>
+  <si>
+    <t>Traumatic amputation of both feet</t>
+  </si>
+  <si>
+    <t>Traumatic amputation of both hands</t>
+  </si>
+  <si>
+    <t>Traumatic amputation of limb</t>
+  </si>
+  <si>
+    <t>Traumatic amputation of lower extremity</t>
+  </si>
+  <si>
+    <t>Traumatic amputations involving multiple body regions</t>
+  </si>
+  <si>
+    <t>Victim of aircraft accident</t>
   </si>
 </sst>
 </file>
@@ -795,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,6 +933,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1116,11 +1247,6084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A92AA-E6CA-402D-BA89-9E5ECDF90715}">
+  <dimension ref="A1:G263"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G263"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="159.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>4065476</v>
+      </c>
+      <c r="B2">
+        <v>216108006</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>4069916</v>
+      </c>
+      <c r="B3">
+        <v>216116002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>436874</v>
+      </c>
+      <c r="B4">
+        <v>217935007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4309743</v>
+      </c>
+      <c r="B5">
+        <v>216300005</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4309744</v>
+      </c>
+      <c r="B6">
+        <v>216301009</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4309631</v>
+      </c>
+      <c r="B7">
+        <v>216298005</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>433117</v>
+      </c>
+      <c r="B8">
+        <v>218070009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>436890</v>
+      </c>
+      <c r="B9">
+        <v>218071008</v>
+      </c>
+      <c r="C9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>437740</v>
+      </c>
+      <c r="B10">
+        <v>218069008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>440607</v>
+      </c>
+      <c r="B11">
+        <v>218099004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>4314869</v>
+      </c>
+      <c r="B12">
+        <v>216302002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>437167</v>
+      </c>
+      <c r="B13">
+        <v>218081007</v>
+      </c>
+      <c r="C13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>437761</v>
+      </c>
+      <c r="B14">
+        <v>218100007</v>
+      </c>
+      <c r="C14" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>433948</v>
+      </c>
+      <c r="B15">
+        <v>218082000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>432534</v>
+      </c>
+      <c r="B16">
+        <v>269716005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>441193</v>
+      </c>
+      <c r="B17">
+        <v>302981008</v>
+      </c>
+      <c r="C17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4312835</v>
+      </c>
+      <c r="B18">
+        <v>216305000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>435145</v>
+      </c>
+      <c r="B19">
+        <v>218017003</v>
+      </c>
+      <c r="C19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4061949</v>
+      </c>
+      <c r="B20">
+        <v>214526001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4060654</v>
+      </c>
+      <c r="B21">
+        <v>214548007</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4053565</v>
+      </c>
+      <c r="B22">
+        <v>242099000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4068823</v>
+      </c>
+      <c r="B23">
+        <v>214604006</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4310777</v>
+      </c>
+      <c r="B24">
+        <v>216119009</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4070899</v>
+      </c>
+      <c r="B25">
+        <v>216115003</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>438922</v>
+      </c>
+      <c r="B26">
+        <v>269662007</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4310921</v>
+      </c>
+      <c r="B27">
+        <v>216279008</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4312832</v>
+      </c>
+      <c r="B28">
+        <v>216281005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>439511</v>
+      </c>
+      <c r="B29">
+        <v>216288004</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4314867</v>
+      </c>
+      <c r="B30">
+        <v>216282003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>433927</v>
+      </c>
+      <c r="B31">
+        <v>216308003</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4309630</v>
+      </c>
+      <c r="B32">
+        <v>216284002</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>439506</v>
+      </c>
+      <c r="B33">
+        <v>216309006</v>
+      </c>
+      <c r="C33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4309629</v>
+      </c>
+      <c r="B34">
+        <v>216283008</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4309745</v>
+      </c>
+      <c r="B35">
+        <v>216304001</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>439983</v>
+      </c>
+      <c r="B36">
+        <v>302974001</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4312833</v>
+      </c>
+      <c r="B37">
+        <v>216285001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4310922</v>
+      </c>
+      <c r="B38">
+        <v>216286000</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4314868</v>
+      </c>
+      <c r="B39">
+        <v>216287009</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>440928</v>
+      </c>
+      <c r="B40">
+        <v>216297000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>432509</v>
+      </c>
+      <c r="B41">
+        <v>242116005</v>
+      </c>
+      <c r="C41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>442984</v>
+      </c>
+      <c r="B42">
+        <v>242190003</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>443164</v>
+      </c>
+      <c r="B43">
+        <v>215873006</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>435135</v>
+      </c>
+      <c r="B44">
+        <v>216267008</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4119154</v>
+      </c>
+      <c r="B45">
+        <v>302977008</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>434542</v>
+      </c>
+      <c r="B46">
+        <v>216075007</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4053574</v>
+      </c>
+      <c r="B47">
+        <v>242145007</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>437476</v>
+      </c>
+      <c r="B48">
+        <v>215415000</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4053428</v>
+      </c>
+      <c r="B49">
+        <v>242107006</v>
+      </c>
+      <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>432532</v>
+      </c>
+      <c r="B50">
+        <v>418019003</v>
+      </c>
+      <c r="C50" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>435991</v>
+      </c>
+      <c r="B51">
+        <v>217082002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4068817</v>
+      </c>
+      <c r="B52">
+        <v>214559003</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>441192</v>
+      </c>
+      <c r="B53">
+        <v>217848007</v>
+      </c>
+      <c r="C53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>432807</v>
+      </c>
+      <c r="B54">
+        <v>218016007</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>435439</v>
+      </c>
+      <c r="B55">
+        <v>216278000</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4299614</v>
+      </c>
+      <c r="B56">
+        <v>386679005</v>
+      </c>
+      <c r="C56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4297371</v>
+      </c>
+      <c r="B57">
+        <v>386681007</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4302552</v>
+      </c>
+      <c r="B58">
+        <v>386680008</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>442212</v>
+      </c>
+      <c r="B59">
+        <v>215189007</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4145511</v>
+      </c>
+      <c r="B60">
+        <v>426772002</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4070894</v>
+      </c>
+      <c r="B61">
+        <v>216076008</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4070895</v>
+      </c>
+      <c r="B62">
+        <v>216077004</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4304929</v>
+      </c>
+      <c r="B63">
+        <v>386663009</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>40483816</v>
+      </c>
+      <c r="B64">
+        <v>445498009</v>
+      </c>
+      <c r="C64" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4198759</v>
+      </c>
+      <c r="B65">
+        <v>433097005</v>
+      </c>
+      <c r="C65" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>51</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4180028</v>
+      </c>
+      <c r="B66">
+        <v>297187004</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4152176</v>
+      </c>
+      <c r="B67">
+        <v>271580006</v>
+      </c>
+      <c r="C67" t="s">
+        <v>254</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4148568</v>
+      </c>
+      <c r="B68">
+        <v>269664008</v>
+      </c>
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>438921</v>
+      </c>
+      <c r="B69">
+        <v>242146008</v>
+      </c>
+      <c r="C69" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4064538</v>
+      </c>
+      <c r="B70">
+        <v>213772006</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4166270</v>
+      </c>
+      <c r="B71">
+        <v>274909002</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4035493</v>
+      </c>
+      <c r="B72">
+        <v>15185003</v>
+      </c>
+      <c r="C72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4152480</v>
+      </c>
+      <c r="B73">
+        <v>283851005</v>
+      </c>
+      <c r="C73" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4146976</v>
+      </c>
+      <c r="B74">
+        <v>35468003</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4309486</v>
+      </c>
+      <c r="B75">
+        <v>213374009</v>
+      </c>
+      <c r="C75" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4309487</v>
+      </c>
+      <c r="B76">
+        <v>213375005</v>
+      </c>
+      <c r="C76" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>440913</v>
+      </c>
+      <c r="B77">
+        <v>111691006</v>
+      </c>
+      <c r="C77" t="s">
+        <v>260</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>197435</v>
+      </c>
+      <c r="B78">
+        <v>70000009</v>
+      </c>
+      <c r="C78" t="s">
+        <v>261</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>51</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>73362</v>
+      </c>
+      <c r="B79">
+        <v>6015002</v>
+      </c>
+      <c r="C79" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>4167864</v>
+      </c>
+      <c r="B80">
+        <v>419026008</v>
+      </c>
+      <c r="C80" t="s">
+        <v>263</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>4064141</v>
+      </c>
+      <c r="B81">
+        <v>215157003</v>
+      </c>
+      <c r="C81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>4230638</v>
+      </c>
+      <c r="B82">
+        <v>88817006</v>
+      </c>
+      <c r="C82" t="s">
+        <v>264</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>4067275</v>
+      </c>
+      <c r="B83">
+        <v>215227000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4066583</v>
+      </c>
+      <c r="B84">
+        <v>214537000</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>442541</v>
+      </c>
+      <c r="B85">
+        <v>216107001</v>
+      </c>
+      <c r="C85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4068819</v>
+      </c>
+      <c r="B86">
+        <v>214570005</v>
+      </c>
+      <c r="C86" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4069905</v>
+      </c>
+      <c r="B87">
+        <v>216081004</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4066335</v>
+      </c>
+      <c r="B88">
+        <v>216087000</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4069909</v>
+      </c>
+      <c r="B89">
+        <v>216088005</v>
+      </c>
+      <c r="C89" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4069910</v>
+      </c>
+      <c r="B90">
+        <v>216089002</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>44791687</v>
+      </c>
+      <c r="B91" s="3">
+        <v>297871000000000</v>
+      </c>
+      <c r="C91" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>4063281</v>
+      </c>
+      <c r="B92">
+        <v>215540009</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>4061952</v>
+      </c>
+      <c r="B93">
+        <v>214581008</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4060656</v>
+      </c>
+      <c r="B94">
+        <v>214592009</v>
+      </c>
+      <c r="C94" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4072665</v>
+      </c>
+      <c r="B95">
+        <v>242119003</v>
+      </c>
+      <c r="C95" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>4067973</v>
+      </c>
+      <c r="B96">
+        <v>216092003</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>435134</v>
+      </c>
+      <c r="B97">
+        <v>418399005</v>
+      </c>
+      <c r="C97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>437738</v>
+      </c>
+      <c r="B98">
+        <v>214640008</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>440897</v>
+      </c>
+      <c r="B99">
+        <v>127348004</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>51</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>435988</v>
+      </c>
+      <c r="B100">
+        <v>127349007</v>
+      </c>
+      <c r="C100" t="s">
+        <v>211</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>51</v>
+      </c>
+      <c r="G100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>441741</v>
+      </c>
+      <c r="B101">
+        <v>127350007</v>
+      </c>
+      <c r="C101" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>51</v>
+      </c>
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>44790560</v>
+      </c>
+      <c r="B102" s="3">
+        <v>243501000000000</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>4069168</v>
+      </c>
+      <c r="B103">
+        <v>214867004</v>
+      </c>
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>4061574</v>
+      </c>
+      <c r="B104">
+        <v>214253001</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>4064818</v>
+      </c>
+      <c r="B105">
+        <v>214160004</v>
+      </c>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>433930</v>
+      </c>
+      <c r="B106">
+        <v>274913009</v>
+      </c>
+      <c r="C106" t="s">
+        <v>223</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>4067724</v>
+      </c>
+      <c r="B107">
+        <v>214115000</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>4168382</v>
+      </c>
+      <c r="B108">
+        <v>274915002</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4053423</v>
+      </c>
+      <c r="B109">
+        <v>242091002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>267</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>4152175</v>
+      </c>
+      <c r="B110">
+        <v>271579008</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>4060151</v>
+      </c>
+      <c r="B111">
+        <v>214080000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>4061564</v>
+      </c>
+      <c r="B112">
+        <v>214171003</v>
+      </c>
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>442451</v>
+      </c>
+      <c r="B113">
+        <v>214206004</v>
+      </c>
+      <c r="C113" t="s">
+        <v>167</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>4067730</v>
+      </c>
+      <c r="B114">
+        <v>214149008</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>4065067</v>
+      </c>
+      <c r="B115">
+        <v>214322000</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>4064812</v>
+      </c>
+      <c r="B116">
+        <v>214092000</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>441187</v>
+      </c>
+      <c r="B117">
+        <v>214032003</v>
+      </c>
+      <c r="C117" t="s">
+        <v>176</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>4060277</v>
+      </c>
+      <c r="B118">
+        <v>214183001</v>
+      </c>
+      <c r="C118" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4168854</v>
+      </c>
+      <c r="B119">
+        <v>274914003</v>
+      </c>
+      <c r="C119" t="s">
+        <v>43</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>437165</v>
+      </c>
+      <c r="B120">
+        <v>214031005</v>
+      </c>
+      <c r="C120" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>443332</v>
+      </c>
+      <c r="B121">
+        <v>214344005</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>4067841</v>
+      </c>
+      <c r="B122">
+        <v>214345006</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>433112</v>
+      </c>
+      <c r="B123">
+        <v>214346007</v>
+      </c>
+      <c r="C123" t="s">
+        <v>226</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>437736</v>
+      </c>
+      <c r="B124">
+        <v>214348008</v>
+      </c>
+      <c r="C124" t="s">
+        <v>204</v>
+      </c>
+      <c r="D124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>433098</v>
+      </c>
+      <c r="B125">
+        <v>214347003</v>
+      </c>
+      <c r="C125" t="s">
+        <v>228</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>438626</v>
+      </c>
+      <c r="B126">
+        <v>214349000</v>
+      </c>
+      <c r="C126" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>4066341</v>
+      </c>
+      <c r="B127">
+        <v>214356006</v>
+      </c>
+      <c r="C127" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>443320</v>
+      </c>
+      <c r="B128">
+        <v>214357002</v>
+      </c>
+      <c r="C128" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>443319</v>
+      </c>
+      <c r="B129">
+        <v>214358007</v>
+      </c>
+      <c r="C129" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" t="s">
+        <v>20</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>443317</v>
+      </c>
+      <c r="B130">
+        <v>214360009</v>
+      </c>
+      <c r="C130" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" t="s">
+        <v>20</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>4066344</v>
+      </c>
+      <c r="B131">
+        <v>214378004</v>
+      </c>
+      <c r="C131" t="s">
+        <v>78</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>9</v>
+      </c>
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>443308</v>
+      </c>
+      <c r="B132">
+        <v>214379007</v>
+      </c>
+      <c r="C132" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" t="s">
+        <v>20</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>9</v>
+      </c>
+      <c r="G132" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>4066346</v>
+      </c>
+      <c r="B133">
+        <v>214389006</v>
+      </c>
+      <c r="C133" t="s">
+        <v>77</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>443004</v>
+      </c>
+      <c r="B134">
+        <v>214390002</v>
+      </c>
+      <c r="C134" t="s">
+        <v>135</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>443003</v>
+      </c>
+      <c r="B135">
+        <v>214391003</v>
+      </c>
+      <c r="C135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D135" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>443296</v>
+      </c>
+      <c r="B136">
+        <v>214393000</v>
+      </c>
+      <c r="C136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D136" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>443009</v>
+      </c>
+      <c r="B137">
+        <v>214397004</v>
+      </c>
+      <c r="C137" t="s">
+        <v>132</v>
+      </c>
+      <c r="D137" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>9</v>
+      </c>
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>443011</v>
+      </c>
+      <c r="B138">
+        <v>214395007</v>
+      </c>
+      <c r="C138" t="s">
+        <v>131</v>
+      </c>
+      <c r="D138" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>4060521</v>
+      </c>
+      <c r="B139">
+        <v>214400008</v>
+      </c>
+      <c r="C139" t="s">
+        <v>105</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>443008</v>
+      </c>
+      <c r="B140">
+        <v>214401007</v>
+      </c>
+      <c r="C140" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>443007</v>
+      </c>
+      <c r="B141">
+        <v>214403005</v>
+      </c>
+      <c r="C141" t="s">
+        <v>134</v>
+      </c>
+      <c r="D141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>9</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>4061824</v>
+      </c>
+      <c r="B142">
+        <v>214402000</v>
+      </c>
+      <c r="C142" t="s">
+        <v>96</v>
+      </c>
+      <c r="D142" t="s">
+        <v>20</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>9</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>4066454</v>
+      </c>
+      <c r="B143">
+        <v>214412007</v>
+      </c>
+      <c r="C143" t="s">
+        <v>76</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>9</v>
+      </c>
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>442937</v>
+      </c>
+      <c r="B144">
+        <v>214413002</v>
+      </c>
+      <c r="C144" t="s">
+        <v>138</v>
+      </c>
+      <c r="D144" t="s">
+        <v>20</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>442675</v>
+      </c>
+      <c r="B145">
+        <v>214162007</v>
+      </c>
+      <c r="C145" t="s">
+        <v>153</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>442673</v>
+      </c>
+      <c r="B146">
+        <v>214164008</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>442672</v>
+      </c>
+      <c r="B147">
+        <v>214166005</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D147" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>442453</v>
+      </c>
+      <c r="B148">
+        <v>214175007</v>
+      </c>
+      <c r="C148" t="s">
+        <v>166</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>442666</v>
+      </c>
+      <c r="B149">
+        <v>214179001</v>
+      </c>
+      <c r="C149" t="s">
+        <v>156</v>
+      </c>
+      <c r="D149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>9</v>
+      </c>
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>442462</v>
+      </c>
+      <c r="B150">
+        <v>214184007</v>
+      </c>
+      <c r="C150" t="s">
+        <v>163</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>9</v>
+      </c>
+      <c r="G150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>442458</v>
+      </c>
+      <c r="B151">
+        <v>214188005</v>
+      </c>
+      <c r="C151" t="s">
+        <v>165</v>
+      </c>
+      <c r="D151" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>442461</v>
+      </c>
+      <c r="B152">
+        <v>214185008</v>
+      </c>
+      <c r="C152" t="s">
+        <v>164</v>
+      </c>
+      <c r="D152" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>442679</v>
+      </c>
+      <c r="B153">
+        <v>214134000</v>
+      </c>
+      <c r="C153" t="s">
+        <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>442842</v>
+      </c>
+      <c r="B154">
+        <v>214118003</v>
+      </c>
+      <c r="C154" t="s">
+        <v>142</v>
+      </c>
+      <c r="D154" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>442839</v>
+      </c>
+      <c r="B155">
+        <v>214121001</v>
+      </c>
+      <c r="C155" t="s">
+        <v>143</v>
+      </c>
+      <c r="D155" t="s">
+        <v>20</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>442926</v>
+      </c>
+      <c r="B156">
+        <v>214081001</v>
+      </c>
+      <c r="C156" t="s">
+        <v>139</v>
+      </c>
+      <c r="D156" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>433929</v>
+      </c>
+      <c r="B157">
+        <v>214082008</v>
+      </c>
+      <c r="C157" t="s">
+        <v>224</v>
+      </c>
+      <c r="D157" t="s">
+        <v>20</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>9</v>
+      </c>
+      <c r="G157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4067633</v>
+      </c>
+      <c r="B158">
+        <v>214104005</v>
+      </c>
+      <c r="C158" t="s">
+        <v>67</v>
+      </c>
+      <c r="D158" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>442831</v>
+      </c>
+      <c r="B159">
+        <v>214112002</v>
+      </c>
+      <c r="C159" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" t="s">
+        <v>20</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>440898</v>
+      </c>
+      <c r="B160">
+        <v>214095003</v>
+      </c>
+      <c r="C160" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>442899</v>
+      </c>
+      <c r="B161">
+        <v>214100001</v>
+      </c>
+      <c r="C161" t="s">
+        <v>141</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>4061687</v>
+      </c>
+      <c r="B162">
+        <v>214265002</v>
+      </c>
+      <c r="C162" t="s">
+        <v>98</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>9</v>
+      </c>
+      <c r="G162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>439338</v>
+      </c>
+      <c r="B163">
+        <v>214266001</v>
+      </c>
+      <c r="C163" t="s">
+        <v>193</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" t="s">
+        <v>9</v>
+      </c>
+      <c r="G163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>439337</v>
+      </c>
+      <c r="B164">
+        <v>214267005</v>
+      </c>
+      <c r="C164" t="s">
+        <v>194</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164" t="s">
+        <v>9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>4065065</v>
+      </c>
+      <c r="B165">
+        <v>214299004</v>
+      </c>
+      <c r="C165" t="s">
+        <v>83</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" t="s">
+        <v>8</v>
+      </c>
+      <c r="F165" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>439365</v>
+      </c>
+      <c r="B166">
+        <v>214300007</v>
+      </c>
+      <c r="C166" t="s">
+        <v>189</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" t="s">
+        <v>8</v>
+      </c>
+      <c r="F166" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>439364</v>
+      </c>
+      <c r="B167">
+        <v>214301006</v>
+      </c>
+      <c r="C167" t="s">
+        <v>190</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>440899</v>
+      </c>
+      <c r="B168">
+        <v>214254007</v>
+      </c>
+      <c r="C168" t="s">
+        <v>179</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" t="s">
+        <v>9</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>436291</v>
+      </c>
+      <c r="B169">
+        <v>214255008</v>
+      </c>
+      <c r="C169" t="s">
+        <v>208</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>4061688</v>
+      </c>
+      <c r="B170">
+        <v>214276003</v>
+      </c>
+      <c r="C170" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170" t="s">
+        <v>9</v>
+      </c>
+      <c r="G170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>439332</v>
+      </c>
+      <c r="B171">
+        <v>214277007</v>
+      </c>
+      <c r="C171" t="s">
+        <v>195</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
+        <v>9</v>
+      </c>
+      <c r="G171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>439376</v>
+      </c>
+      <c r="B172">
+        <v>214278002</v>
+      </c>
+      <c r="C172" t="s">
+        <v>188</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>443127</v>
+      </c>
+      <c r="B173">
+        <v>214323005</v>
+      </c>
+      <c r="C173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>435420</v>
+      </c>
+      <c r="B174">
+        <v>214209006</v>
+      </c>
+      <c r="C174" t="s">
+        <v>218</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>440304</v>
+      </c>
+      <c r="B175">
+        <v>214215006</v>
+      </c>
+      <c r="C175" t="s">
+        <v>184</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" t="s">
+        <v>8</v>
+      </c>
+      <c r="F175" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>442449</v>
+      </c>
+      <c r="B176">
+        <v>214219000</v>
+      </c>
+      <c r="C176" t="s">
+        <v>168</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>432530</v>
+      </c>
+      <c r="B177">
+        <v>214221005</v>
+      </c>
+      <c r="C177" t="s">
+        <v>231</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>442448</v>
+      </c>
+      <c r="B178">
+        <v>214220006</v>
+      </c>
+      <c r="C178" t="s">
+        <v>169</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" t="s">
+        <v>9</v>
+      </c>
+      <c r="G178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>442444</v>
+      </c>
+      <c r="B179">
+        <v>214227009</v>
+      </c>
+      <c r="C179" t="s">
+        <v>170</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" t="s">
+        <v>9</v>
+      </c>
+      <c r="G179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>439339</v>
+      </c>
+      <c r="B180">
+        <v>214231003</v>
+      </c>
+      <c r="C180" t="s">
+        <v>192</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" t="s">
+        <v>8</v>
+      </c>
+      <c r="F180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>439342</v>
+      </c>
+      <c r="B181">
+        <v>214232005</v>
+      </c>
+      <c r="C181" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>438920</v>
+      </c>
+      <c r="B182">
+        <v>214056004</v>
+      </c>
+      <c r="C182" t="s">
+        <v>198</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>4175576</v>
+      </c>
+      <c r="B183">
+        <v>297186008</v>
+      </c>
+      <c r="C183" t="s">
+        <v>42</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>4060650</v>
+      </c>
+      <c r="B184">
+        <v>214503008</v>
+      </c>
+      <c r="C184" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" t="s">
+        <v>51</v>
+      </c>
+      <c r="G184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>442904</v>
+      </c>
+      <c r="B185">
+        <v>214505001</v>
+      </c>
+      <c r="C185" t="s">
+        <v>140</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" t="s">
+        <v>51</v>
+      </c>
+      <c r="G185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>442661</v>
+      </c>
+      <c r="B186">
+        <v>214561007</v>
+      </c>
+      <c r="C186" t="s">
+        <v>157</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>4061829</v>
+      </c>
+      <c r="B187">
+        <v>214469006</v>
+      </c>
+      <c r="C187" t="s">
+        <v>94</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187" t="s">
+        <v>8</v>
+      </c>
+      <c r="F187" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>442826</v>
+      </c>
+      <c r="B188">
+        <v>214516008</v>
+      </c>
+      <c r="C188" t="s">
+        <v>145</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>442804</v>
+      </c>
+      <c r="B189">
+        <v>214527005</v>
+      </c>
+      <c r="C189" t="s">
+        <v>150</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>4066458</v>
+      </c>
+      <c r="B190">
+        <v>214436006</v>
+      </c>
+      <c r="C190" t="s">
+        <v>75</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+      <c r="G190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>435705</v>
+      </c>
+      <c r="B191">
+        <v>214437002</v>
+      </c>
+      <c r="C191" t="s">
+        <v>213</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+      <c r="G191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>443048</v>
+      </c>
+      <c r="B192">
+        <v>214441003</v>
+      </c>
+      <c r="C192" t="s">
+        <v>126</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" t="s">
+        <v>8</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>443049</v>
+      </c>
+      <c r="B193">
+        <v>214438007</v>
+      </c>
+      <c r="C193" t="s">
+        <v>125</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" t="s">
+        <v>8</v>
+      </c>
+      <c r="F193" t="s">
+        <v>9</v>
+      </c>
+      <c r="G193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>443047</v>
+      </c>
+      <c r="B194">
+        <v>214443000</v>
+      </c>
+      <c r="C194" t="s">
+        <v>127</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+      <c r="G194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>436614</v>
+      </c>
+      <c r="B195">
+        <v>214442005</v>
+      </c>
+      <c r="C195" t="s">
+        <v>207</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195" t="s">
+        <v>9</v>
+      </c>
+      <c r="G195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>4060530</v>
+      </c>
+      <c r="B196">
+        <v>214447004</v>
+      </c>
+      <c r="C196" t="s">
+        <v>104</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" t="s">
+        <v>8</v>
+      </c>
+      <c r="F196" t="s">
+        <v>9</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>443033</v>
+      </c>
+      <c r="B197">
+        <v>214448009</v>
+      </c>
+      <c r="C197" t="s">
+        <v>129</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>443032</v>
+      </c>
+      <c r="B198">
+        <v>214450001</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" t="s">
+        <v>8</v>
+      </c>
+      <c r="F198" t="s">
+        <v>9</v>
+      </c>
+      <c r="G198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>435421</v>
+      </c>
+      <c r="B199">
+        <v>214449001</v>
+      </c>
+      <c r="C199" t="s">
+        <v>217</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" t="s">
+        <v>9</v>
+      </c>
+      <c r="G199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>443042</v>
+      </c>
+      <c r="B200">
+        <v>214455006</v>
+      </c>
+      <c r="C200" t="s">
+        <v>128</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" t="s">
+        <v>9</v>
+      </c>
+      <c r="G200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>442812</v>
+      </c>
+      <c r="B201">
+        <v>214538005</v>
+      </c>
+      <c r="C201" t="s">
+        <v>146</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>442810</v>
+      </c>
+      <c r="B202">
+        <v>214540000</v>
+      </c>
+      <c r="C202" t="s">
+        <v>148</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202" t="s">
+        <v>8</v>
+      </c>
+      <c r="F202" t="s">
+        <v>9</v>
+      </c>
+      <c r="G202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>442811</v>
+      </c>
+      <c r="B203">
+        <v>214539002</v>
+      </c>
+      <c r="C203" t="s">
+        <v>147</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203" t="s">
+        <v>8</v>
+      </c>
+      <c r="F203" t="s">
+        <v>9</v>
+      </c>
+      <c r="G203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>442809</v>
+      </c>
+      <c r="B204">
+        <v>214541001</v>
+      </c>
+      <c r="C204" t="s">
+        <v>149</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" t="s">
+        <v>9</v>
+      </c>
+      <c r="G204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>442652</v>
+      </c>
+      <c r="B205">
+        <v>214571009</v>
+      </c>
+      <c r="C205" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>442651</v>
+      </c>
+      <c r="B206">
+        <v>214572002</v>
+      </c>
+      <c r="C206" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" t="s">
+        <v>9</v>
+      </c>
+      <c r="G206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>442647</v>
+      </c>
+      <c r="B207">
+        <v>214576004</v>
+      </c>
+      <c r="C207" t="s">
+        <v>160</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>442465</v>
+      </c>
+      <c r="B208">
+        <v>214593004</v>
+      </c>
+      <c r="C208" t="s">
+        <v>162</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>9</v>
+      </c>
+      <c r="G208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4061827</v>
+      </c>
+      <c r="B209">
+        <v>214458008</v>
+      </c>
+      <c r="C209" t="s">
+        <v>95</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209" t="s">
+        <v>9</v>
+      </c>
+      <c r="G209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>442800</v>
+      </c>
+      <c r="B210">
+        <v>214551000</v>
+      </c>
+      <c r="C210" t="s">
+        <v>151</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" t="s">
+        <v>9</v>
+      </c>
+      <c r="G210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>435436</v>
+      </c>
+      <c r="B211">
+        <v>214606008</v>
+      </c>
+      <c r="C211" t="s">
+        <v>216</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>443050</v>
+      </c>
+      <c r="B212">
+        <v>214435005</v>
+      </c>
+      <c r="C212" t="s">
+        <v>124</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" t="s">
+        <v>9</v>
+      </c>
+      <c r="G212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4202524</v>
+      </c>
+      <c r="B213">
+        <v>5380001</v>
+      </c>
+      <c r="C213" t="s">
+        <v>269</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" t="s">
+        <v>51</v>
+      </c>
+      <c r="G213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4303824</v>
+      </c>
+      <c r="B214">
+        <v>418565008</v>
+      </c>
+      <c r="C214" t="s">
+        <v>270</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>8</v>
+      </c>
+      <c r="F214" t="s">
+        <v>9</v>
+      </c>
+      <c r="G214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>434228</v>
+      </c>
+      <c r="B215">
+        <v>21107000</v>
+      </c>
+      <c r="C215" t="s">
+        <v>271</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>8</v>
+      </c>
+      <c r="F215" t="s">
+        <v>51</v>
+      </c>
+      <c r="G215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>443423</v>
+      </c>
+      <c r="B216">
+        <v>386662004</v>
+      </c>
+      <c r="C216" t="s">
+        <v>115</v>
+      </c>
+      <c r="D216" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" t="s">
+        <v>9</v>
+      </c>
+      <c r="G216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4067156</v>
+      </c>
+      <c r="B217">
+        <v>215141003</v>
+      </c>
+      <c r="C217" t="s">
+        <v>71</v>
+      </c>
+      <c r="D217" t="s">
+        <v>20</v>
+      </c>
+      <c r="E217" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" t="s">
+        <v>9</v>
+      </c>
+      <c r="G217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4067161</v>
+      </c>
+      <c r="B218">
+        <v>215173009</v>
+      </c>
+      <c r="C218" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" t="s">
+        <v>20</v>
+      </c>
+      <c r="E218" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" t="s">
+        <v>9</v>
+      </c>
+      <c r="G218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>4067151</v>
+      </c>
+      <c r="B219">
+        <v>215108001</v>
+      </c>
+      <c r="C219" t="s">
+        <v>73</v>
+      </c>
+      <c r="D219" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" t="s">
+        <v>9</v>
+      </c>
+      <c r="G219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>44791617</v>
+      </c>
+      <c r="B220" s="3">
+        <v>295961000000000</v>
+      </c>
+      <c r="C220" t="s">
+        <v>17</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220" t="s">
+        <v>9</v>
+      </c>
+      <c r="G220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>442246</v>
+      </c>
+      <c r="B221">
+        <v>215143000</v>
+      </c>
+      <c r="C221" t="s">
+        <v>172</v>
+      </c>
+      <c r="D221" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221" t="s">
+        <v>9</v>
+      </c>
+      <c r="G221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>442247</v>
+      </c>
+      <c r="B222">
+        <v>215142005</v>
+      </c>
+      <c r="C222" t="s">
+        <v>171</v>
+      </c>
+      <c r="D222" t="s">
+        <v>20</v>
+      </c>
+      <c r="E222" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" t="s">
+        <v>9</v>
+      </c>
+      <c r="G222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>44791624</v>
+      </c>
+      <c r="B223" s="3">
+        <v>295991000000000</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" t="s">
+        <v>8</v>
+      </c>
+      <c r="F223" t="s">
+        <v>9</v>
+      </c>
+      <c r="G223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>4069513</v>
+      </c>
+      <c r="B224">
+        <v>215165000</v>
+      </c>
+      <c r="C224" t="s">
+        <v>57</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>8</v>
+      </c>
+      <c r="F224" t="s">
+        <v>9</v>
+      </c>
+      <c r="G224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>4062888</v>
+      </c>
+      <c r="B225">
+        <v>215125004</v>
+      </c>
+      <c r="C225" t="s">
+        <v>90</v>
+      </c>
+      <c r="D225" t="s">
+        <v>20</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" t="s">
+        <v>9</v>
+      </c>
+      <c r="G225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>4067154</v>
+      </c>
+      <c r="B226">
+        <v>215133003</v>
+      </c>
+      <c r="C226" t="s">
+        <v>72</v>
+      </c>
+      <c r="D226" t="s">
+        <v>20</v>
+      </c>
+      <c r="E226" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" t="s">
+        <v>9</v>
+      </c>
+      <c r="G226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>4062887</v>
+      </c>
+      <c r="B227">
+        <v>215117001</v>
+      </c>
+      <c r="C227" t="s">
+        <v>91</v>
+      </c>
+      <c r="D227" t="s">
+        <v>20</v>
+      </c>
+      <c r="E227" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" t="s">
+        <v>9</v>
+      </c>
+      <c r="G227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>44791627</v>
+      </c>
+      <c r="B228" s="3">
+        <v>296031000000000</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>8</v>
+      </c>
+      <c r="F228" t="s">
+        <v>9</v>
+      </c>
+      <c r="G228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>44791637</v>
+      </c>
+      <c r="B229" s="3">
+        <v>296071000000000</v>
+      </c>
+      <c r="C229" t="s">
+        <v>14</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>44791638</v>
+      </c>
+      <c r="B230" s="3">
+        <v>296081000000000</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230" t="s">
+        <v>9</v>
+      </c>
+      <c r="G230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>4067739</v>
+      </c>
+      <c r="B231">
+        <v>214207008</v>
+      </c>
+      <c r="C231" t="s">
+        <v>64</v>
+      </c>
+      <c r="D231" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231" t="s">
+        <v>9</v>
+      </c>
+      <c r="G231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>4060282</v>
+      </c>
+      <c r="B232">
+        <v>214218008</v>
+      </c>
+      <c r="C232" t="s">
+        <v>107</v>
+      </c>
+      <c r="D232" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232" t="s">
+        <v>9</v>
+      </c>
+      <c r="G232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>4060285</v>
+      </c>
+      <c r="B233">
+        <v>214230002</v>
+      </c>
+      <c r="C233" t="s">
+        <v>106</v>
+      </c>
+      <c r="D233" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233" t="s">
+        <v>9</v>
+      </c>
+      <c r="G233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>440896</v>
+      </c>
+      <c r="B234">
+        <v>213770003</v>
+      </c>
+      <c r="C234" t="s">
+        <v>182</v>
+      </c>
+      <c r="D234" t="s">
+        <v>20</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234" t="s">
+        <v>9</v>
+      </c>
+      <c r="G234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>435703</v>
+      </c>
+      <c r="B235">
+        <v>213859004</v>
+      </c>
+      <c r="C235" t="s">
+        <v>214</v>
+      </c>
+      <c r="D235" t="s">
+        <v>20</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235" t="s">
+        <v>9</v>
+      </c>
+      <c r="G235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>4312828</v>
+      </c>
+      <c r="B236">
+        <v>216268003</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" t="s">
+        <v>20</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236" t="s">
+        <v>9</v>
+      </c>
+      <c r="G236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>432531</v>
+      </c>
+      <c r="B237">
+        <v>216270007</v>
+      </c>
+      <c r="C237" t="s">
+        <v>230</v>
+      </c>
+      <c r="D237" t="s">
+        <v>20</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>440622</v>
+      </c>
+      <c r="B238">
+        <v>216269006</v>
+      </c>
+      <c r="C238" t="s">
+        <v>183</v>
+      </c>
+      <c r="D238" t="s">
+        <v>20</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>4216727</v>
+      </c>
+      <c r="B239">
+        <v>71893005</v>
+      </c>
+      <c r="C239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D239" t="s">
+        <v>20</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>4050586</v>
+      </c>
+      <c r="B240">
+        <v>23321002</v>
+      </c>
+      <c r="C240" t="s">
+        <v>273</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>4064670</v>
+      </c>
+      <c r="B241">
+        <v>213897004</v>
+      </c>
+      <c r="C241" t="s">
+        <v>86</v>
+      </c>
+      <c r="D241" t="s">
+        <v>20</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>437764</v>
+      </c>
+      <c r="B242">
+        <v>213771004</v>
+      </c>
+      <c r="C242" t="s">
+        <v>202</v>
+      </c>
+      <c r="D242" t="s">
+        <v>20</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>4067396</v>
+      </c>
+      <c r="B243">
+        <v>213882002</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>20</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>436012</v>
+      </c>
+      <c r="B244">
+        <v>213881009</v>
+      </c>
+      <c r="C244" t="s">
+        <v>209</v>
+      </c>
+      <c r="D244" t="s">
+        <v>20</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>435713</v>
+      </c>
+      <c r="B245">
+        <v>274215009</v>
+      </c>
+      <c r="C245" t="s">
+        <v>212</v>
+      </c>
+      <c r="D245" t="s">
+        <v>20</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>4309488</v>
+      </c>
+      <c r="B246">
+        <v>213378007</v>
+      </c>
+      <c r="C246" t="s">
+        <v>274</v>
+      </c>
+      <c r="D246" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
+        <v>51</v>
+      </c>
+      <c r="G246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>4308552</v>
+      </c>
+      <c r="B247">
+        <v>213377002</v>
+      </c>
+      <c r="C247" t="s">
+        <v>275</v>
+      </c>
+      <c r="D247" t="s">
+        <v>20</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" t="s">
+        <v>51</v>
+      </c>
+      <c r="G247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>4056435</v>
+      </c>
+      <c r="B248">
+        <v>210771000</v>
+      </c>
+      <c r="C248" t="s">
+        <v>276</v>
+      </c>
+      <c r="D248" t="s">
+        <v>20</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" t="s">
+        <v>51</v>
+      </c>
+      <c r="G248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>4318111</v>
+      </c>
+      <c r="B249">
+        <v>95860004</v>
+      </c>
+      <c r="C249" t="s">
+        <v>277</v>
+      </c>
+      <c r="D249" t="s">
+        <v>20</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249" t="s">
+        <v>51</v>
+      </c>
+      <c r="G249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>4308853</v>
+      </c>
+      <c r="B250">
+        <v>213376006</v>
+      </c>
+      <c r="C250" t="s">
+        <v>278</v>
+      </c>
+      <c r="D250" t="s">
+        <v>20</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" t="s">
+        <v>51</v>
+      </c>
+      <c r="G250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>4302549</v>
+      </c>
+      <c r="B251">
+        <v>386664003</v>
+      </c>
+      <c r="C251" t="s">
+        <v>38</v>
+      </c>
+      <c r="D251" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>4168046</v>
+      </c>
+      <c r="B252">
+        <v>418161006</v>
+      </c>
+      <c r="C252" t="s">
+        <v>45</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>44791643</v>
+      </c>
+      <c r="B253" s="3">
+        <v>296131000000000</v>
+      </c>
+      <c r="C253" t="s">
+        <v>12</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>44791656</v>
+      </c>
+      <c r="B254" s="3">
+        <v>296191000000000</v>
+      </c>
+      <c r="C254" t="s">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" t="s">
+        <v>9</v>
+      </c>
+      <c r="G254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>435132</v>
+      </c>
+      <c r="B255">
+        <v>129675007</v>
+      </c>
+      <c r="C255" t="s">
+        <v>221</v>
+      </c>
+      <c r="D255" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255" t="s">
+        <v>51</v>
+      </c>
+      <c r="G255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>444065</v>
+      </c>
+      <c r="B256">
+        <v>34552002</v>
+      </c>
+      <c r="C256" t="s">
+        <v>114</v>
+      </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256" t="s">
+        <v>51</v>
+      </c>
+      <c r="G256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>440931</v>
+      </c>
+      <c r="B257">
+        <v>84682001</v>
+      </c>
+      <c r="C257" t="s">
+        <v>279</v>
+      </c>
+      <c r="D257" t="s">
+        <v>20</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257" t="s">
+        <v>51</v>
+      </c>
+      <c r="G257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>444074</v>
+      </c>
+      <c r="B258">
+        <v>36198007</v>
+      </c>
+      <c r="C258" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" t="s">
+        <v>51</v>
+      </c>
+      <c r="G258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>440902</v>
+      </c>
+      <c r="B259">
+        <v>20062001</v>
+      </c>
+      <c r="C259" t="s">
+        <v>178</v>
+      </c>
+      <c r="D259" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259" t="s">
+        <v>51</v>
+      </c>
+      <c r="G259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>433099</v>
+      </c>
+      <c r="B260">
+        <v>47397001</v>
+      </c>
+      <c r="C260" t="s">
+        <v>227</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260" t="s">
+        <v>51</v>
+      </c>
+      <c r="G260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>438310</v>
+      </c>
+      <c r="B261">
+        <v>10298002</v>
+      </c>
+      <c r="C261" t="s">
+        <v>200</v>
+      </c>
+      <c r="D261" t="s">
+        <v>20</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261" t="s">
+        <v>51</v>
+      </c>
+      <c r="G261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>441188</v>
+      </c>
+      <c r="B262">
+        <v>32906002</v>
+      </c>
+      <c r="C262" t="s">
+        <v>175</v>
+      </c>
+      <c r="D262" t="s">
+        <v>20</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" t="s">
+        <v>51</v>
+      </c>
+      <c r="G262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>438301</v>
+      </c>
+      <c r="B263">
+        <v>215414001</v>
+      </c>
+      <c r="C263" t="s">
+        <v>201</v>
+      </c>
+      <c r="D263" t="s">
+        <v>20</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263" t="s">
+        <v>9</v>
+      </c>
+      <c r="G263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67662BFC-B60F-456F-9167-F1A8B1F1D058}">
   <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5583,11 +11787,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EC55C3-9DA4-4804-A3E8-A08A92257E4A}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A151"/>
     </sheetView>
   </sheetViews>
@@ -8626,7 +14830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EF94F4-4DFD-4A8D-981F-A622A1D645B7}">
   <dimension ref="A1:M7"/>
   <sheetViews>
